--- a/src/pack.xlsx
+++ b/src/pack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pidan/guoke/研二上/工作/gemm_opt/pidan_cpu_gemm_opt/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F9AD64-6439-3D44-97A3-66EC46AB8B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D69E99-CEED-5946-98C5-173477EBE6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5480" yWindow="2280" windowWidth="27840" windowHeight="16940" xr2:uid="{14F4060E-FF3C-EA41-9639-3E4DBDE18243}"/>
   </bookViews>
@@ -1173,7 +1173,7 @@
   <dimension ref="A1:T63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
